--- a/比较器延时与资源消耗.xlsx
+++ b/比较器延时与资源消耗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\lidar\PPJ\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9217FC-9D62-4B6D-A9B9-103FFC1FEB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F3DE1-4883-43D1-83AD-393840D58A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>资源占用(LUT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全插入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +385,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -434,10 +438,18 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.8580000000000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.252</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3079</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>

--- a/比较器延时与资源消耗.xlsx
+++ b/比较器延时与资源消耗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\lidar\PPJ\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F3DE1-4883-43D1-83AD-393840D58A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C69CFF9-9A52-4FA3-ACA0-EA066262D6E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>全插入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101_0101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -459,10 +463,18 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2.911</v>
+      </c>
+      <c r="C4">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9132</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>

--- a/比较器延时与资源消耗.xlsx
+++ b/比较器延时与资源消耗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\lidar\PPJ\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F3DE1-4883-43D1-83AD-393840D58A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D356D9FE-01C8-4F13-A8DD-2F915386A9FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,9 @@
   <si>
     <t>全插入</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101_0101</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -396,7 +399,7 @@
     <col min="4" max="4" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,14 +412,37 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1">
+        <v>512</v>
+      </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1">
+        <v>256</v>
+      </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="I1" s="1">
+        <v>128</v>
+      </c>
+      <c r="K1">
+        <v>64</v>
+      </c>
+      <c r="M1">
+        <v>32</v>
+      </c>
+      <c r="O1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -430,14 +456,35 @@
         <v>17940</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
       <c r="K2" s="1"/>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -451,37 +498,110 @@
         <v>3079</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+    <row r="4" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2.911</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="D4" s="3">
+        <v>9132</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+    <row r="5" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10110100</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.073</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2924</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/比较器延时与资源消耗.xlsx
+++ b/比较器延时与资源消耗.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\lidar\PPJ\comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\lidar\PPJ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580F3DE1-4883-43D1-83AD-393840D58A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53AAA12B-15E0-4F1B-9963-CB2715511F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,9 @@
   <si>
     <t>全插入</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101_0101</t>
   </si>
 </sst>
 </file>
@@ -382,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="100" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -396,7 +399,7 @@
     <col min="4" max="4" width="56.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -409,14 +412,37 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="1">
+        <v>512</v>
+      </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1">
+        <v>256</v>
+      </c>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I1" s="1">
+        <v>128</v>
+      </c>
+      <c r="K1">
+        <v>64</v>
+      </c>
+      <c r="M1">
+        <v>32</v>
+      </c>
+      <c r="O1">
+        <v>16</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>4</v>
+      </c>
+      <c r="U1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -430,60 +456,301 @@
         <v>17940</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1011010</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3.3570000000000002</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.2570000000000001</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9132</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>10101010</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2.1179999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2902</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>10110100</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.073</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2.0870000000000002</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2924</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2.911</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2.0230000000000001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9132</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10100101</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2.859</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.964</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2908</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B8" s="2">
         <v>2.8580000000000001</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C8" s="2">
         <v>1.252</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D8" s="2">
         <v>3079</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="100" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:U18">
+    <sortCondition descending="1" ref="B1:B18"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
